--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8370283333333334</v>
+        <v>2.721294</v>
       </c>
       <c r="H2">
-        <v>2.511085</v>
+        <v>8.163882000000001</v>
       </c>
       <c r="I2">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="J2">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N2">
         <v>0.278712</v>
@@ -564,16 +564,16 @@
         <v>0.9572435868814848</v>
       </c>
       <c r="Q2">
-        <v>0.07776328028</v>
+        <v>0.252819097776</v>
       </c>
       <c r="R2">
-        <v>0.6998695225199999</v>
+        <v>2.275371879984001</v>
       </c>
       <c r="S2">
-        <v>0.01006865601062759</v>
+        <v>0.03197741109137893</v>
       </c>
       <c r="T2">
-        <v>0.01006865601062759</v>
+        <v>0.03197741109137893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8370283333333334</v>
+        <v>2.721294</v>
       </c>
       <c r="H3">
-        <v>2.511085</v>
+        <v>8.163882000000001</v>
       </c>
       <c r="I3">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="J3">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012449</v>
       </c>
       <c r="O3">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P3">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q3">
-        <v>0.003473388573888889</v>
+        <v>0.011292463002</v>
       </c>
       <c r="R3">
-        <v>0.031260497165</v>
+        <v>0.101632167018</v>
       </c>
       <c r="S3">
-        <v>0.0004497283887177551</v>
+        <v>0.001428308758419359</v>
       </c>
       <c r="T3">
-        <v>0.0004497283887177551</v>
+        <v>0.001428308758419359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>104.519883</v>
       </c>
       <c r="I4">
-        <v>0.437810869312907</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="J4">
-        <v>0.4378108693129071</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N4">
         <v>0.278712</v>
@@ -688,16 +688,16 @@
         <v>0.9572435868814848</v>
       </c>
       <c r="Q4">
-        <v>3.236771736743999</v>
+        <v>3.236771736744</v>
       </c>
       <c r="R4">
-        <v>29.13094563069599</v>
+        <v>29.130945630696</v>
       </c>
       <c r="S4">
-        <v>0.4190916469167881</v>
+        <v>0.4093977921182382</v>
       </c>
       <c r="T4">
-        <v>0.4190916469167882</v>
+        <v>0.4093977921182382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>104.519883</v>
       </c>
       <c r="I5">
-        <v>0.437810869312907</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="J5">
-        <v>0.4378108693129071</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012449</v>
       </c>
       <c r="O5">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P5">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q5">
         <v>0.1445742248296667</v>
@@ -756,10 +756,10 @@
         <v>1.301168023467</v>
       </c>
       <c r="S5">
-        <v>0.01871922239611892</v>
+        <v>0.01828623494531972</v>
       </c>
       <c r="T5">
-        <v>0.01871922239611892</v>
+        <v>0.01828623494531971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>131.701988</v>
       </c>
       <c r="I6">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="J6">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09290399999999999</v>
+        <v>0.092904</v>
       </c>
       <c r="N6">
         <v>0.278712</v>
@@ -812,16 +812,16 @@
         <v>0.9572435868814848</v>
       </c>
       <c r="Q6">
-        <v>4.078547164383999</v>
+        <v>4.078547164384</v>
       </c>
       <c r="R6">
-        <v>36.70692447945599</v>
+        <v>36.706924479456</v>
       </c>
       <c r="S6">
-        <v>0.5280832839540691</v>
+        <v>0.5158683836718676</v>
       </c>
       <c r="T6">
-        <v>0.5280832839540691</v>
+        <v>0.5158683836718676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>131.701988</v>
       </c>
       <c r="I7">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="J7">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012449</v>
       </c>
       <c r="O7">
-        <v>0.0427564131185152</v>
+        <v>0.04275641311851519</v>
       </c>
       <c r="P7">
-        <v>0.04275641311851519</v>
+        <v>0.04275641311851518</v>
       </c>
       <c r="Q7">
         <v>0.1821731165124445</v>
@@ -880,10 +880,10 @@
         <v>1.639558048612</v>
       </c>
       <c r="S7">
-        <v>0.02358746233367852</v>
+        <v>0.02304186941477612</v>
       </c>
       <c r="T7">
-        <v>0.02358746233367852</v>
+        <v>0.02304186941477611</v>
       </c>
     </row>
   </sheetData>
